--- a/MedicineDatabase.xlsx
+++ b/MedicineDatabase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4980" yWindow="1980" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -51,7 +51,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -66,44 +66,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -130,15 +130,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -165,7 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -177,142 +175,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -322,40 +344,453 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="A18:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>barcode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>expire</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xsac</t>
+          <t>ahmed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASC</t>
+          <t>11111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAS</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAS</t>
+          <t>10/6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AS</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13212</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>alaa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>farouk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ded</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>lol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ala</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>eldin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>farouk</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cataflam</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>68</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>panadol</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>96</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10/10/2020</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ahmed3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mona</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>kd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kl</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cataflam</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cataflam</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seso</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
